--- a/data/exercice2.xlsx
+++ b/data/exercice2.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b04d825435d036ce/Documents/Prevision/data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="6" documentId="11_B82265D464182BEA155D21CE0C13B3890BAA66C5" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{3C014650-EB92-47A1-828A-7DB1EE84F26D}"/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="60" windowWidth="6855" windowHeight="4380"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -21,23 +27,23 @@
     <t>Continente</t>
   </si>
   <si>
-    <t>Dis Mag Value</t>
+    <t>Total_des_dommages</t>
   </si>
   <si>
-    <t>nombre total de décès</t>
+    <t>Dis_Mag_Value</t>
   </si>
   <si>
-    <t>Total Affecté</t>
+    <t>nombre_total_de_deces</t>
   </si>
   <si>
-    <t>Total des dommages ('000 US $)</t>
+    <t>Total_Affecte</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -77,13 +83,25 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Thème Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -121,7 +139,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -155,6 +173,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -189,9 +208,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -364,14 +384,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E109"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="18.140625" customWidth="1"/>
     <col min="2" max="2" width="22.28515625" customWidth="1"/>
@@ -380,24 +400,24 @@
     <col min="5" max="5" width="33.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>2</v>
       </c>
@@ -414,7 +434,7 @@
         <v>500000</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>3</v>
       </c>
@@ -431,7 +451,7 @@
         <v>100000</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>2</v>
       </c>
@@ -448,7 +468,7 @@
         <v>7310</v>
       </c>
     </row>
-    <row r="5" spans="1:5">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -465,7 +485,7 @@
         <v>6000</v>
       </c>
     </row>
-    <row r="6" spans="1:5">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>3</v>
       </c>
@@ -482,7 +502,7 @@
         <v>3150</v>
       </c>
     </row>
-    <row r="7" spans="1:5">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>1</v>
       </c>
@@ -499,7 +519,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="8" spans="1:5">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>2</v>
       </c>
@@ -516,7 +536,7 @@
         <v>125000</v>
       </c>
     </row>
-    <row r="9" spans="1:5">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>4</v>
       </c>
@@ -533,7 +553,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="10" spans="1:5">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>3</v>
       </c>
@@ -550,7 +570,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="11" spans="1:5">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>2</v>
       </c>
@@ -567,7 +587,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="12" spans="1:5">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>3</v>
       </c>
@@ -584,7 +604,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="13" spans="1:5">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>3</v>
       </c>
@@ -601,7 +621,7 @@
         <v>14000</v>
       </c>
     </row>
-    <row r="14" spans="1:5">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>3</v>
       </c>
@@ -618,7 +638,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="15" spans="1:5">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>2</v>
       </c>
@@ -635,7 +655,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="16" spans="1:5">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>3</v>
       </c>
@@ -652,7 +672,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="17" spans="1:5">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>1</v>
       </c>
@@ -669,7 +689,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>3</v>
       </c>
@@ -686,7 +706,7 @@
         <v>600</v>
       </c>
     </row>
-    <row r="19" spans="1:5">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>4</v>
       </c>
@@ -703,7 +723,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>2</v>
       </c>
@@ -720,7 +740,7 @@
         <v>4000</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>2</v>
       </c>
@@ -737,7 +757,7 @@
         <v>236400</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>2</v>
       </c>
@@ -754,7 +774,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>1</v>
       </c>
@@ -771,7 +791,7 @@
         <v>5600000</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>2</v>
       </c>
@@ -788,7 +808,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>1</v>
       </c>
@@ -805,7 +825,7 @@
         <v>195000</v>
       </c>
     </row>
-    <row r="26" spans="1:5">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>1</v>
       </c>
@@ -822,7 +842,7 @@
         <v>1200</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27">
         <v>2</v>
       </c>
@@ -839,7 +859,7 @@
         <v>80000</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>3</v>
       </c>
@@ -856,7 +876,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>2</v>
       </c>
@@ -873,7 +893,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30">
         <v>1</v>
       </c>
@@ -890,7 +910,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>2</v>
       </c>
@@ -907,7 +927,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>1</v>
       </c>
@@ -924,7 +944,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="33" spans="1:5">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>4</v>
       </c>
@@ -941,7 +961,7 @@
         <v>120000</v>
       </c>
     </row>
-    <row r="34" spans="1:5">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>1</v>
       </c>
@@ -958,7 +978,7 @@
         <v>30000</v>
       </c>
     </row>
-    <row r="35" spans="1:5">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>4</v>
       </c>
@@ -975,7 +995,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="36" spans="1:5">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>1</v>
       </c>
@@ -992,7 +1012,7 @@
         <v>800000</v>
       </c>
     </row>
-    <row r="37" spans="1:5">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>1</v>
       </c>
@@ -1009,7 +1029,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="38" spans="1:5">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>2</v>
       </c>
@@ -1026,7 +1046,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="39" spans="1:5">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>2</v>
       </c>
@@ -1043,7 +1063,7 @@
         <v>15000</v>
       </c>
     </row>
-    <row r="40" spans="1:5">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>1</v>
       </c>
@@ -1060,7 +1080,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="41" spans="1:5">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>1</v>
       </c>
@@ -1077,7 +1097,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="42" spans="1:5">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>4</v>
       </c>
@@ -1094,7 +1114,7 @@
         <v>1500</v>
       </c>
     </row>
-    <row r="43" spans="1:5">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>1</v>
       </c>
@@ -1111,7 +1131,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>1</v>
       </c>
@@ -1128,7 +1148,7 @@
         <v>131000</v>
       </c>
     </row>
-    <row r="45" spans="1:5">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>1</v>
       </c>
@@ -1145,7 +1165,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="46" spans="1:5">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>1</v>
       </c>
@@ -1162,7 +1182,7 @@
         <v>35000</v>
       </c>
     </row>
-    <row r="47" spans="1:5">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>3</v>
       </c>
@@ -1179,7 +1199,7 @@
         <v>250000</v>
       </c>
     </row>
-    <row r="48" spans="1:5">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>5</v>
       </c>
@@ -1196,7 +1216,7 @@
         <v>2669</v>
       </c>
     </row>
-    <row r="49" spans="1:5">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>2</v>
       </c>
@@ -1213,7 +1233,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="50" spans="1:5">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>2</v>
       </c>
@@ -1230,7 +1250,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="51" spans="1:5">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>2</v>
       </c>
@@ -1247,7 +1267,7 @@
         <v>530000</v>
       </c>
     </row>
-    <row r="52" spans="1:5">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>5</v>
       </c>
@@ -1264,7 +1284,7 @@
         <v>1750</v>
       </c>
     </row>
-    <row r="53" spans="1:5">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>2</v>
       </c>
@@ -1281,7 +1301,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="54" spans="1:5">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>1</v>
       </c>
@@ -1298,7 +1318,7 @@
         <v>55600</v>
       </c>
     </row>
-    <row r="55" spans="1:5">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>3</v>
       </c>
@@ -1315,7 +1335,7 @@
         <v>41600</v>
       </c>
     </row>
-    <row r="56" spans="1:5">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>1</v>
       </c>
@@ -1332,7 +1352,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="57" spans="1:5">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>2</v>
       </c>
@@ -1349,7 +1369,7 @@
         <v>553000</v>
       </c>
     </row>
-    <row r="58" spans="1:5">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>1</v>
       </c>
@@ -1366,7 +1386,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="59" spans="1:5">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>2</v>
       </c>
@@ -1383,7 +1403,7 @@
         <v>845000</v>
       </c>
     </row>
-    <row r="60" spans="1:5">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>1</v>
       </c>
@@ -1400,7 +1420,7 @@
         <v>450</v>
       </c>
     </row>
-    <row r="61" spans="1:5">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>1</v>
       </c>
@@ -1417,7 +1437,7 @@
         <v>3255</v>
       </c>
     </row>
-    <row r="62" spans="1:5">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>1</v>
       </c>
@@ -1434,7 +1454,7 @@
         <v>17000</v>
       </c>
     </row>
-    <row r="63" spans="1:5">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>1</v>
       </c>
@@ -1451,7 +1471,7 @@
         <v>134000</v>
       </c>
     </row>
-    <row r="64" spans="1:5">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>3</v>
       </c>
@@ -1468,7 +1488,7 @@
         <v>3600000</v>
       </c>
     </row>
-    <row r="65" spans="1:5">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65">
         <v>1</v>
       </c>
@@ -1485,7 +1505,7 @@
         <v>25000</v>
       </c>
     </row>
-    <row r="66" spans="1:5">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66">
         <v>3</v>
       </c>
@@ -1502,7 +1522,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="67" spans="1:5">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>1</v>
       </c>
@@ -1519,7 +1539,7 @@
         <v>865000</v>
       </c>
     </row>
-    <row r="68" spans="1:5">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68">
         <v>3</v>
       </c>
@@ -1536,7 +1556,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="69" spans="1:5">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69">
         <v>4</v>
       </c>
@@ -1553,7 +1573,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="70" spans="1:5">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>2</v>
       </c>
@@ -1570,7 +1590,7 @@
         <v>140000</v>
       </c>
     </row>
-    <row r="71" spans="1:5">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71">
         <v>3</v>
       </c>
@@ -1587,7 +1607,7 @@
         <v>38600</v>
       </c>
     </row>
-    <row r="72" spans="1:5">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72">
         <v>3</v>
       </c>
@@ -1604,7 +1624,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="73" spans="1:5">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>2</v>
       </c>
@@ -1621,7 +1641,7 @@
         <v>8000</v>
       </c>
     </row>
-    <row r="74" spans="1:5">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74">
         <v>2</v>
       </c>
@@ -1638,7 +1658,7 @@
         <v>20000</v>
       </c>
     </row>
-    <row r="75" spans="1:5">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75">
         <v>4</v>
       </c>
@@ -1655,7 +1675,7 @@
         <v>5200000</v>
       </c>
     </row>
-    <row r="76" spans="1:5">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>4</v>
       </c>
@@ -1672,7 +1692,7 @@
         <v>900000</v>
       </c>
     </row>
-    <row r="77" spans="1:5">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77">
         <v>2</v>
       </c>
@@ -1689,7 +1709,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="78" spans="1:5">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78">
         <v>3</v>
       </c>
@@ -1706,7 +1726,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="79" spans="1:5">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>1</v>
       </c>
@@ -1723,7 +1743,7 @@
         <v>50000</v>
       </c>
     </row>
-    <row r="80" spans="1:5">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80">
         <v>3</v>
       </c>
@@ -1740,7 +1760,7 @@
         <v>410900</v>
       </c>
     </row>
-    <row r="81" spans="1:5">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81">
         <v>1</v>
       </c>
@@ -1757,7 +1777,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="82" spans="1:5">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>3</v>
       </c>
@@ -1774,7 +1794,7 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="83" spans="1:5">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83">
         <v>1</v>
       </c>
@@ -1791,7 +1811,7 @@
         <v>745000</v>
       </c>
     </row>
-    <row r="84" spans="1:5">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84">
         <v>2</v>
       </c>
@@ -1808,7 +1828,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="85" spans="1:5">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>1</v>
       </c>
@@ -1825,7 +1845,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="86" spans="1:5">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86">
         <v>3</v>
       </c>
@@ -1842,7 +1862,7 @@
         <v>269000</v>
       </c>
     </row>
-    <row r="87" spans="1:5">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>2</v>
       </c>
@@ -1859,7 +1879,7 @@
         <v>4150</v>
       </c>
     </row>
-    <row r="88" spans="1:5">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>1</v>
       </c>
@@ -1876,7 +1896,7 @@
         <v>16000</v>
       </c>
     </row>
-    <row r="89" spans="1:5">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89">
         <v>2</v>
       </c>
@@ -1893,7 +1913,7 @@
         <v>20000000</v>
       </c>
     </row>
-    <row r="90" spans="1:5">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90">
         <v>4</v>
       </c>
@@ -1910,7 +1930,7 @@
         <v>245000</v>
       </c>
     </row>
-    <row r="91" spans="1:5">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>1</v>
       </c>
@@ -1927,7 +1947,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="92" spans="1:5">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92">
         <v>2</v>
       </c>
@@ -1944,7 +1964,7 @@
         <v>1000000</v>
       </c>
     </row>
-    <row r="93" spans="1:5">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93">
         <v>2</v>
       </c>
@@ -1961,7 +1981,7 @@
         <v>1450</v>
       </c>
     </row>
-    <row r="94" spans="1:5">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94">
         <v>1</v>
       </c>
@@ -1978,7 +1998,7 @@
         <v>2227</v>
       </c>
     </row>
-    <row r="95" spans="1:5">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95">
         <v>1</v>
       </c>
@@ -1995,7 +2015,7 @@
         <v>416000</v>
       </c>
     </row>
-    <row r="96" spans="1:5">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96">
         <v>3</v>
       </c>
@@ -2012,7 +2032,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="97" spans="1:5">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>3</v>
       </c>
@@ -2029,7 +2049,7 @@
         <v>3000</v>
       </c>
     </row>
-    <row r="98" spans="1:5">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>2</v>
       </c>
@@ -2046,7 +2066,7 @@
         <v>4104000</v>
       </c>
     </row>
-    <row r="99" spans="1:5">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>2</v>
       </c>
@@ -2063,7 +2083,7 @@
         <v>2000</v>
       </c>
     </row>
-    <row r="100" spans="1:5">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>4</v>
       </c>
@@ -2080,7 +2100,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="101" spans="1:5">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>1</v>
       </c>
@@ -2097,7 +2117,7 @@
         <v>22000</v>
       </c>
     </row>
-    <row r="102" spans="1:5">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>1</v>
       </c>
@@ -2114,7 +2134,7 @@
         <v>1500000</v>
       </c>
     </row>
-    <row r="103" spans="1:5">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>2</v>
       </c>
@@ -2131,7 +2151,7 @@
         <v>5000</v>
       </c>
     </row>
-    <row r="104" spans="1:5">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>1</v>
       </c>
@@ -2148,7 +2168,7 @@
         <v>210000</v>
       </c>
     </row>
-    <row r="105" spans="1:5">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>1</v>
       </c>
@@ -2165,7 +2185,7 @@
         <v>71500</v>
       </c>
     </row>
-    <row r="106" spans="1:5">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>1</v>
       </c>
@@ -2182,7 +2202,7 @@
         <v>60000</v>
       </c>
     </row>
-    <row r="107" spans="1:5">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>1</v>
       </c>
@@ -2199,7 +2219,7 @@
         <v>450000</v>
       </c>
     </row>
-    <row r="108" spans="1:5">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>1</v>
       </c>
@@ -2216,7 +2236,7 @@
         <v>2000000</v>
       </c>
     </row>
-    <row r="109" spans="1:5">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>1</v>
       </c>
@@ -2239,24 +2259,24 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
